--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc7.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quais áreas marítimas estão excluídas do âmbito de aplicação das disposições sobre o Alto Mar?</t>
+          <t>Qual é o âmbito de aplicação das disposições da Parte VII da Convenção?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A Zona Econômica Exclusiva, o mar territorial, as águas interiores e as águas arquipelágicas.</t>
+          <t>Aplicam-se a todas as partes do mar não incluídas na ZEE, no mar territorial, nas águas interiores ou nas águas arquipelágicas, conforme o Art. 86.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quais são as seis liberdades do alto mar listadas expressamente para todos os Estados (costeiros ou sem litoral)?</t>
+          <t>Quais são as liberdades compreendidas no alto mar para todos os Estados?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Navegação, sobrevoo, colocação de cabos e dutos, construção de ilhas artificiais, pesca e investigação científica.</t>
+          <t>Liberdade de navegação, sobrevoo, colocação de cabos/dutos, construção de ilhas artificiais, pesca e investigação científica, conforme o Art. 87, § 1º.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>É legítimo que um Estado pretenda submeter qualquer parte do alto mar à sua soberania?</t>
+          <t>O exercício das liberdades do alto mar é absoluto?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Não, nenhum Estado pode legitimamente pretender submeter qualquer parte do alto mar à sua soberania.</t>
+          <t>Não, deve ser exercido tendo em devida conta os interesses de outros Estados e os direitos relativos às atividades na Área, conforme o Art. 87, § 2º.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o requisito fundamental para que um Estado atribua a sua nacionalidade a um navio?</t>
+          <t>Para quais fins o alto mar deve ser utilizado?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Deve existir um vínculo substancial entre o Estado e o navio.</t>
+          <t>O alto mar será utilizado para fins pacíficos, conforme o Art. 88.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a consequência jurídica para um navio que navegue sob a bandeira de dois ou mais Estados, utilizando-as segundo a sua conveniência?</t>
+          <t>É legítima a reivindicação de soberania sobre qualquer parte do alto mar?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Não pode reivindicar qualquer dessas nacionalidades e pode ser considerado um navio sem nacionalidade (apátrida).</t>
+          <t>Não, nenhum Estado pode legitimamente pretender submeter qualquer parte do alto mar à sua soberania, conforme o Art. 89.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A qual jurisdição os navios devem se submeter enquanto navegam no alto mar?</t>
+          <t>Qual é o requisito fundamental para um Estado atribuir sua nacionalidade a um navio?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>À jurisdição exclusiva do Estado de sua bandeira, salvo exceções previstas em tratados ou na Convenção.</t>
+          <t>Deve existir um vínculo substancial entre o Estado e o navio, conforme o Art. 91, § 1º.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Que tipo de imunidade gozam os navios de guerra no alto mar?</t>
+          <t>Qual é a extensão da imunidade dos navios de guerra no alto mar?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gozam de completa imunidade de jurisdição relativamente a qualquer outro Estado que não seja o da sua bandeira.</t>
+          <t>Gozam de completa imunidade de jurisdição relativamente a qualquer outro Estado que não seja o da sua bandeira, conforme o Art. 95.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Em caso de acidente marítimo no alto mar envolvendo navio de sua bandeira com mortes ou danos graves, o que o Estado deve fazer?</t>
+          <t>Além dos navios de guerra, quais outros navios gozam de completa imunidade no alto mar?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deve ordenar a abertura de um inquérito efetuado por pessoa ou pessoas devidamente qualificadas.</t>
+          <t>Navios pertencentes a um Estado ou por ele operados e utilizados unicamente em serviço oficial não comercial, conforme o Art. 96.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Quais medidas de segurança o Estado deve garantir para navios de sua bandeira em relação à tripulação?</t>
+          <t>Quem tem competência penal em caso de abalroamento no alto mar envolvendo responsabilidade do capitão?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Que o capitão e oficiais sejam qualificados e que a tripulação seja apropriada em competência e número para o tipo de navio.</t>
+          <t>Apenas as autoridades judiciais ou administrativas do Estado de bandeira ou do Estado do qual a pessoa seja nacional, conforme o Art. 97, § 1º.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quem tem competência penal ou disciplinar contra o capitão em caso de abalroamento no alto mar?</t>
+          <t>Qual é a condição jurídica de um escravo que se refugie em um navio no alto mar?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Apenas as autoridades judiciais ou administrativas do Estado de bandeira ou do Estado do qual a pessoa seja nacional.</t>
+          <t>Todo escravo que se refugie num navio, qualquer que seja a sua bandeira, ficará, ipso facto, livre, conforme o Art. 99.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qual é o status jurídico de um escravo que se refugie a bordo de qualquer navio no alto mar?</t>
+          <t>Qual o dever dos Estados em relação à pirataria no alto mar?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ficará, *ipso facto* (pelo próprio fato), livre.</t>
+          <t>Devem cooperar na repressão da pirataria no alto mar ou em qualquer lugar fora da jurisdição de algum Estado, conforme o Art. 100.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Para fins de definição de pirataria, contra quem o ato de violência ou detenção deve ser dirigido?</t>
+          <t>O que define um ato de pirataria segundo a Convenção?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Contra um navio ou aeronave em alto mar (ou lugar sem jurisdição) e pessoas ou bens a bordo.</t>
+          <t>Atos ilícitos de violência, detenção ou depredação cometidos para fins privados contra navios, aeronaves, pessoas ou bens em alto mar, conforme o Art. 101.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quem tem competência para apresar um navio pirata no alto mar?</t>
+          <t>Quem é responsável por perdas ou danos se um navio for apresado por suspeita de pirataria sem motivo suficiente?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Todo Estado pode apresar um navio pirata, prender as pessoas e apreender os bens a bordo.</t>
+          <t>O Estado que efetuou o apresamento será responsável perante o Estado de nacionalidade do navio, conforme o Art. 106.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O que ocorre se um navio for apresado por suspeita de pirataria sem motivo suficiente?</t>
+          <t>Quais embarcações estão autorizadas a efetuar apresamento por motivo de pirataria?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O Estado que o apresou será responsável perante o Estado da nacionalidade do navio por qualquer perda ou dano.</t>
+          <t>Navios de guerra, aeronaves militares ou outros navios/aeronaves a serviço de um governo, devidamente identificados e autorizados, conforme o Art. 107.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág. 29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quais Estados têm jurisdição para processar responsáveis por transmissões não autorizadas a partir do alto mar?</t>
+          <t>Quais tribunais podem processar responsáveis por transmissões não autorizadas a partir do alto mar?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Estado da bandeira, do registro da instalação, da nacionalidade do autor, onde a transmissão é recebida ou onde há interferência.</t>
+          <t>Tribunais do Estado de bandeira, de registro da instalação, da nacionalidade da pessoa, ou de onde as transmissões sejam recebidas ou causem interferência, conforme o Art. 109, § 3º.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág. 29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Em quais hipóteses um navio de guerra tem direito de visita a um navio estrangeiro no alto mar (sem imunidade)?</t>
+          <t>Em que casos um navio de guerra tem direito de visita a um navio estrangeiro sem imunidade no alto mar?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Suspeita de pirataria, tráfico de escravos, transmissões não autorizadas, falta de nacionalidade ou uso de bandeira falsa.</t>
+          <t>Suspeita de pirataria, tráfico de escravos, transmissões não autorizadas, falta de nacionalidade ou recusa de bandeira (sendo da mesma nacionalidade do navio de guerra), conforme o Art. 110, § 1º.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág. 30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quando cessa o direito de perseguição (hot pursuit) de um navio estrangeiro?</t>
+          <t>Onde deve ser iniciada a perseguição (direito de perseguição) a um navio estrangeiro?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No momento em que o navio perseguido entra no mar territorial do seu próprio Estado ou de um terceiro Estado.</t>
+          <t>Nas águas interiores, arquipelágicas, mar territorial ou zona contígua do Estado perseguidor, conforme o Art. 111, § 1º.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág. 30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A perseguição pode começar quando o navio estrangeiro está na zona contígua?</t>
+          <t>Quando cessa o direito de perseguição (hot pursuit)?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sim, mas apenas se tiver havido violação dos direitos para cuja proteção a referida zona foi criada.</t>
+          <t>No momento em que o navio perseguido entra no mar territorial do seu próprio Estado ou de um terceiro Estado, conforme o Art. 111, § 3º.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág. 30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O proprietário de um navio deve ser indenizado se sacrificar uma âncora ou aparelho de pesca para evitar dano a um cabo submarino?</t>
+          <t>Como os Estados devem tratar a ruptura ou danificação intencional de cabos submarinos no alto mar?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sim, desde que tenha tomado previamente todas as medidas de precaução razoáveis.</t>
+          <t>Devem adotar leis para que tais atos constituam infrações passíveis de sanções, conforme o Art. 113.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág. 31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O que os Estados devem fazer se seus nacionais aproveitam recursos vivos idênticos na mesma zona do alto mar?</t>
+          <t>Quem deve arcar com o custo se o proprietário de um cabo submarino danificar outro ao repará-lo?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Devem efetuar negociações para tomar as medidas necessárias à conservação de tais recursos.</t>
+          <t>O proprietário que provocou a ruptura ou danificação deve responder pelo custo da reparação, conforme o Art. 114.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág. 31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,107 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Qual é o objetivo das medidas de conservação dos recursos vivos no alto mar em relação aos níveis populacionais?</t>
+          <t>Qual é o dever geral dos Estados quanto aos recursos vivos do alto mar?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Preservar ou restabelecer as populações a níveis que possam produzir o máximo rendimento constante (sustentável).</t>
+          <t>Tomar medidas ou cooperar com outros Estados para a conservação dos recursos vivos em relação aos seus nacionais, conforme o Art. 117.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág. 31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>O que devem fazer os Estados cujos nacionais aproveitam recursos vivos idênticos na mesma zona do alto mar?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Efetuar negociações para tomar as medidas necessárias à conservação de tais recursos, conforme o Art. 118.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pág. 32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Parte VII - Alto Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Qual é o objetivo ao fixar a captura permissível de recursos vivos no alto mar?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Manter ou restabelecer as populações a níveis que possam produzir o máximo rendimento constante, conforme o Art. 119, § 1º, alínea a.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pág. 32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Parte VII - Alto Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Como se aplica a gestão de mamíferos marinhos no alto mar?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Aplica-se o disposto no Artigo 65 (que permite regulamentação mais estrita e atuação de organizações internacionais), conforme o Art. 120.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pág. 32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
     </row>
